--- a/23. Matrizes de Rastreabilidade (Caracteristica X SSS) Incompleto.xlsx
+++ b/23. Matrizes de Rastreabilidade (Caracteristica X SSS) Incompleto.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23505"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="207" documentId="11_92485C45C1F39E42E268565A893E8C18510380CC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3805C808-1DC6-42CD-AA35-7C78D1D7B895}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa37e96bb8b72277/Impacta/OPE - ENIAC/OPE - ENIAC/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="209" documentId="11_92485C45C1F39E42E268565A893E8C18510380CC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A5D9C9EC-29AB-4BA5-8BF8-049367FBB526}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -326,7 +331,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -622,20 +627,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Z69"/>
+  <dimension ref="A2:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Z52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
     <col min="2" max="30" width="12.7109375" style="1" customWidth="1"/>
     <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="14.25">
+    <row r="2" spans="1:26">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,7 +717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25">
+    <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -746,7 +751,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -778,7 +783,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -808,7 +813,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -838,7 +843,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25">
+    <row r="7" spans="1:26">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -870,7 +875,7 @@
       </c>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25">
+    <row r="8" spans="1:26">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -900,7 +905,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -932,7 +937,7 @@
       </c>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25">
+    <row r="10" spans="1:26">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -962,7 +967,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25">
+    <row r="11" spans="1:26">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -992,7 +997,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="14.25">
+    <row r="12" spans="1:26">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1022,7 +1027,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="14.25">
+    <row r="13" spans="1:26">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1056,7 +1061,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25">
+    <row r="14" spans="1:26">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1092,7 +1097,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25">
+    <row r="15" spans="1:26">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -1124,7 +1129,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="14.25">
+    <row r="16" spans="1:26">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -1156,7 +1161,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="14.25">
+    <row r="17" spans="1:26">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -1188,7 +1193,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="14.25">
+    <row r="18" spans="1:26">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -1220,7 +1225,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="14.25">
+    <row r="19" spans="1:26">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1254,7 +1259,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="14.25">
+    <row r="20" spans="1:26">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -1288,7 +1293,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="14.25">
+    <row r="21" spans="1:26">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -1328,7 +1333,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="14.25">
+    <row r="22" spans="1:26">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -1360,7 +1365,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="14.25">
+    <row r="23" spans="1:26">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -1390,7 +1395,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="14.25">
+    <row r="24" spans="1:26">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -1420,7 +1425,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="14.25">
+    <row r="25" spans="1:26">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1452,7 +1457,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="14.25">
+    <row r="26" spans="1:26">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
@@ -1484,7 +1489,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="14.25">
+    <row r="27" spans="1:26">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -1518,7 +1523,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="14.25">
+    <row r="28" spans="1:26">
       <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
@@ -1553,7 +1558,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="14.25">
+    <row r="29" spans="1:26">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -1583,7 +1588,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="14.25">
+    <row r="30" spans="1:26">
       <c r="A30" s="1" t="s">
         <v>53</v>
       </c>
@@ -1615,7 +1620,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="14.25">
+    <row r="31" spans="1:26">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
@@ -1645,7 +1650,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="14.25">
+    <row r="32" spans="1:26">
       <c r="A32" s="1" t="s">
         <v>55</v>
       </c>
@@ -1679,7 +1684,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="14.25">
+    <row r="33" spans="1:26">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
@@ -1713,7 +1718,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="14.25">
+    <row r="34" spans="1:26">
       <c r="A34" s="1" t="s">
         <v>57</v>
       </c>
@@ -1745,7 +1750,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="14.25">
+    <row r="35" spans="1:26">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
@@ -1777,7 +1782,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="14.25">
+    <row r="36" spans="1:26">
       <c r="A36" s="1" t="s">
         <v>59</v>
       </c>
@@ -1811,7 +1816,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="14.25">
+    <row r="37" spans="1:26">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -1845,7 +1850,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="14.25">
+    <row r="38" spans="1:26">
       <c r="A38" s="1" t="s">
         <v>61</v>
       </c>
@@ -1877,7 +1882,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="14.25">
+    <row r="39" spans="1:26">
       <c r="A39" s="1" t="s">
         <v>62</v>
       </c>
@@ -1909,7 +1914,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="14.25">
+    <row r="40" spans="1:26">
       <c r="A40" s="1" t="s">
         <v>63</v>
       </c>
@@ -1941,7 +1946,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="14.25">
+    <row r="41" spans="1:26">
       <c r="A41" s="1" t="s">
         <v>64</v>
       </c>
@@ -1971,7 +1976,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" ht="14.25">
+    <row r="42" spans="1:26">
       <c r="A42" s="1" t="s">
         <v>65</v>
       </c>
@@ -2003,7 +2008,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" ht="14.25">
+    <row r="43" spans="1:26">
       <c r="A43" s="1" t="s">
         <v>66</v>
       </c>
@@ -2033,7 +2038,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="14.25">
+    <row r="44" spans="1:26">
       <c r="A44" s="1" t="s">
         <v>67</v>
       </c>
@@ -2063,7 +2068,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="14.25">
+    <row r="45" spans="1:26">
       <c r="A45" s="1" t="s">
         <v>68</v>
       </c>
@@ -2093,7 +2098,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="14.25">
+    <row r="46" spans="1:26">
       <c r="A46" s="1" t="s">
         <v>69</v>
       </c>
@@ -2123,7 +2128,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" ht="14.25">
+    <row r="47" spans="1:26">
       <c r="A47" s="1" t="s">
         <v>70</v>
       </c>
@@ -2153,7 +2158,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" ht="14.25">
+    <row r="48" spans="1:26">
       <c r="A48" s="1" t="s">
         <v>71</v>
       </c>
@@ -2185,7 +2190,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" ht="14.25">
+    <row r="49" spans="1:26">
       <c r="A49" s="1" t="s">
         <v>72</v>
       </c>
@@ -2219,7 +2224,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" ht="14.25">
+    <row r="50" spans="1:26">
       <c r="A50" s="1" t="s">
         <v>73</v>
       </c>
@@ -2251,7 +2256,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" ht="14.25">
+    <row r="51" spans="1:26">
       <c r="A51" s="1" t="s">
         <v>74</v>
       </c>
@@ -2283,7 +2288,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" ht="14.25">
+    <row r="52" spans="1:26">
       <c r="A52" s="1" t="s">
         <v>75</v>
       </c>
@@ -2310,33 +2315,17 @@
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
+      <c r="W52" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" ht="14.25">
-      <c r="W53" s="2" t="s">
-        <v>26</v>
-      </c>
+    <row r="53" spans="1:26">
+      <c r="W53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" ht="14.25"/>
-    <row r="55" spans="1:26" ht="14.25"/>
-    <row r="56" spans="1:26" ht="14.25"/>
-    <row r="57" spans="1:26" ht="14.25"/>
-    <row r="58" spans="1:26" ht="14.25"/>
-    <row r="59" spans="1:26" ht="14.25"/>
-    <row r="60" spans="1:26" ht="14.25"/>
-    <row r="61" spans="1:26" ht="14.25"/>
-    <row r="62" spans="1:26" ht="14.25"/>
-    <row r="63" spans="1:26" ht="14.25"/>
-    <row r="64" spans="1:26" ht="14.25"/>
-    <row r="65" ht="14.25"/>
-    <row r="66" ht="14.25"/>
-    <row r="67" ht="14.25"/>
-    <row r="68" ht="14.25"/>
-    <row r="69" ht="14.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
